--- a/biology/Biochimie/Phosphate_de_pyridoxal/Phosphate_de_pyridoxal.xlsx
+++ b/biology/Biochimie/Phosphate_de_pyridoxal/Phosphate_de_pyridoxal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le phosphate de pyridoxal (PLP) est une coenzyme dérivée d'une vitamine, la pyridoxine (vitamine B6). C'est un groupement prosthétique. Il intervient dans le métabolisme en permettant entre autres la transamination ou la décarboxylation des acides aminés. Son site actif est la fonction aldéhyde sur l'atome de carbone no 4. C'est une coenzyme des aminotransférases et des décarboxylases.
